--- a/data dictionaries/ACDE_Data_Dictionary.xlsx
+++ b/data dictionaries/ACDE_Data_Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectCollections\Programs\Australia_Cultural_Data_Engine\data_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1C8146-98BD-4FE8-BA75-5E775648A9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0329AA-ED65-4A55-B28C-AEF909DB2F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12660" yWindow="5175" windowWidth="18660" windowHeight="15570" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Place!$A$1:$L$333</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Recognition!$A$1:$L$300</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Relationship!$A$1:$L$218</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Resource!$A$1:$H$448</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Resource!$A$1:$H$449</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Work!$A$1:$L$474</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22348" uniqueCount="2673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22356" uniqueCount="2676">
   <si>
     <t>Full Attribute</t>
   </si>
@@ -8224,6 +8224,15 @@
   </si>
   <si>
     <t>The year of registration date of the person</t>
+  </si>
+  <si>
+    <t>raw_txt</t>
+  </si>
+  <si>
+    <t>The raw text of published date of the resource. The text was not standardized. It may contain the month of the date, period of the date, etc.</t>
+  </si>
+  <si>
+    <t>date_info.date_published.raw_txt</t>
   </si>
 </sst>
 </file>
@@ -8703,11 +8712,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEF062B-1C85-48F2-9AB4-AED2DF198BCA}">
   <dimension ref="A1:L735"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B194" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K202" sqref="K202"/>
+      <selection pane="bottomRight" activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -63856,13 +63865,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FE0F30-8A75-49A6-AC64-AF79F9A777DE}">
-  <dimension ref="A1:L448"/>
+  <dimension ref="A1:L449"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B205" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D218" sqref="D218"/>
+      <selection pane="bottomRight" activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -65888,32 +65897,35 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="126" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>1432</v>
+        <v>2675</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>1394</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>1433</v>
+        <v>1424</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>2673</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>24</v>
+        <v>1316</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>102</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>1434</v>
+        <v>2674</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>1394</v>
@@ -65921,9 +65933,6 @@
       <c r="C86" s="4" t="s">
         <v>1433</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="H86" s="4" t="s">
         <v>24</v>
       </c>
@@ -65931,15 +65940,15 @@
         <v>102</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>1394</v>
@@ -65948,7 +65957,7 @@
         <v>1433</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>24</v>
@@ -65957,7 +65966,7 @@
         <v>102</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="K87" s="4" t="s">
         <v>19</v>
@@ -65965,7 +65974,7 @@
     </row>
     <row r="88" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>1394</v>
@@ -65974,7 +65983,7 @@
         <v>1433</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>24</v>
@@ -65983,7 +65992,7 @@
         <v>102</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="K88" s="4" t="s">
         <v>19</v>
@@ -65991,13 +66000,16 @@
     </row>
     <row r="89" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>1394</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>23</v>
+        <v>1433</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>24</v>
@@ -66006,21 +66018,21 @@
         <v>102</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="K89" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>1394</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>1444</v>
+        <v>23</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>24</v>
@@ -66029,15 +66041,15 @@
         <v>102</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>1394</v>
@@ -66045,9 +66057,6 @@
       <c r="C91" s="4" t="s">
         <v>1444</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="H91" s="4" t="s">
         <v>24</v>
       </c>
@@ -66055,15 +66064,15 @@
         <v>102</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>1394</v>
@@ -66072,7 +66081,7 @@
         <v>1444</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>24</v>
@@ -66081,7 +66090,7 @@
         <v>102</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="K92" s="4" t="s">
         <v>19</v>
@@ -66089,7 +66098,7 @@
     </row>
     <row r="93" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>1394</v>
@@ -66098,7 +66107,7 @@
         <v>1444</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>24</v>
@@ -66107,64 +66116,67 @@
         <v>102</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="K93" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>1452</v>
+      <c r="A94" s="4" t="s">
+        <v>1450</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>1452</v>
+        <v>1394</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I94" s="6" t="s">
         <v>102</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>1454</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>1452</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>1452</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>1455</v>
-      </c>
       <c r="H95" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I95" s="6" t="s">
         <v>102</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>1452</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>24</v>
@@ -66173,7 +66185,7 @@
         <v>102</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="K96" s="4" t="s">
         <v>19</v>
@@ -66181,13 +66193,13 @@
     </row>
     <row r="97" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>1452</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>24</v>
@@ -66196,7 +66208,7 @@
         <v>102</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="K97" s="4" t="s">
         <v>19</v>
@@ -66204,13 +66216,13 @@
     </row>
     <row r="98" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>1452</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>1048</v>
+        <v>1461</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>24</v>
@@ -66219,7 +66231,7 @@
         <v>102</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="K98" s="4" t="s">
         <v>19</v>
@@ -66227,79 +66239,79 @@
     </row>
     <row r="99" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>1452</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>1466</v>
+        <v>1048</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>102</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="K99" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>1468</v>
+    <row r="100" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>1465</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>1468</v>
+        <v>1452</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>1466</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>1469</v>
+        <v>31</v>
       </c>
       <c r="I100" s="6" t="s">
         <v>102</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
-        <v>1471</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>1468</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>1468</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>1472</v>
-      </c>
       <c r="H101" s="4" t="s">
-        <v>1316</v>
+        <v>1469</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>1468</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>1316</v>
@@ -66308,30 +66320,30 @@
         <v>103</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="K102" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>1468</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>24</v>
+        <v>1316</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="K103" s="4" t="s">
         <v>19</v>
@@ -66339,13 +66351,13 @@
     </row>
     <row r="104" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>1468</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>24</v>
@@ -66354,7 +66366,7 @@
         <v>102</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="K104" s="4" t="s">
         <v>19</v>
@@ -66362,13 +66374,13 @@
     </row>
     <row r="105" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>1468</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>24</v>
@@ -66377,44 +66389,44 @@
         <v>102</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="K105" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>1468</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>1316</v>
+        <v>24</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="K106" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>1468</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>1316</v>
@@ -66423,7 +66435,7 @@
         <v>103</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="K107" s="4" t="s">
         <v>19</v>
@@ -66431,45 +66443,45 @@
     </row>
     <row r="108" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>1468</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>23</v>
+        <v>1490</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>35</v>
+        <v>1316</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="K108" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>1468</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>1495</v>
+        <v>23</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>1316</v>
+        <v>35</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="K109" s="4" t="s">
         <v>19</v>
@@ -66477,13 +66489,13 @@
     </row>
     <row r="110" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>1468</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="H110" s="4" t="s">
         <v>1316</v>
@@ -66492,138 +66504,138 @@
         <v>103</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="K110" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>1468</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>24</v>
+        <v>1316</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="K111" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>1468</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>1316</v>
+        <v>24</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="K112" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>1504</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>1316</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>1505</v>
+      </c>
+      <c r="K113" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B114" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="H113" s="4" t="s">
+      <c r="H114" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+    <row r="115" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>1506</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>1506</v>
-      </c>
-      <c r="H114" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I114" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="J114" s="4" t="s">
-        <v>1507</v>
-      </c>
-      <c r="K114" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
-        <v>1508</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>1506</v>
       </c>
-      <c r="C115" s="4" t="s">
-        <v>1509</v>
-      </c>
       <c r="H115" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I115" s="6" t="s">
         <v>102</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>1506</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I116" s="6" t="s">
         <v>102</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="K116" s="4" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>1506</v>
@@ -66631,9 +66643,6 @@
       <c r="C117" s="4" t="s">
         <v>1512</v>
       </c>
-      <c r="D117" s="4" t="s">
-        <v>1515</v>
-      </c>
       <c r="H117" s="4" t="s">
         <v>35</v>
       </c>
@@ -66641,30 +66650,33 @@
         <v>102</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="K117" s="4" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>1506</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>212</v>
+        <v>1512</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>1515</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I118" s="6" t="s">
         <v>102</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="K118" s="4" t="s">
         <v>19</v>
@@ -66672,13 +66684,13 @@
     </row>
     <row r="119" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>1506</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>1515</v>
+        <v>212</v>
       </c>
       <c r="H119" s="4" t="s">
         <v>24</v>
@@ -66687,73 +66699,73 @@
         <v>102</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="K119" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>442</v>
+      <c r="A120" s="4" t="s">
+        <v>1519</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>442</v>
+        <v>1506</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>1515</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>1295</v>
+        <v>24</v>
       </c>
       <c r="I120" s="6" t="s">
         <v>102</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
-        <v>1522</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>442</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="C121" s="4" t="s">
-        <v>444</v>
-      </c>
       <c r="H121" s="4" t="s">
-        <v>51</v>
+        <v>1295</v>
       </c>
       <c r="I121" s="6" t="s">
         <v>102</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>442</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>1016</v>
+        <v>444</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I122" s="6" t="s">
         <v>102</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="K122" s="4" t="s">
         <v>19</v>
@@ -66761,22 +66773,22 @@
     </row>
     <row r="123" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>442</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>1527</v>
+        <v>1016</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="I123" s="6" t="s">
         <v>102</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="K123" s="4" t="s">
         <v>19</v>
@@ -66784,22 +66796,22 @@
     </row>
     <row r="124" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>442</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="I124" s="6" t="s">
         <v>102</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="K124" s="4" t="s">
         <v>19</v>
@@ -66807,22 +66819,22 @@
     </row>
     <row r="125" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>442</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>1018</v>
+        <v>1530</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I125" s="6" t="s">
         <v>102</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="K125" s="4" t="s">
         <v>19</v>
@@ -66830,22 +66842,22 @@
     </row>
     <row r="126" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>442</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>1535</v>
+        <v>1018</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I126" s="6" t="s">
         <v>102</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="K126" s="4" t="s">
         <v>19</v>
@@ -66853,13 +66865,13 @@
     </row>
     <row r="127" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>442</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="H127" s="4" t="s">
         <v>35</v>
@@ -66868,38 +66880,38 @@
         <v>102</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="K127" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>442</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>1307</v>
+        <v>35</v>
       </c>
       <c r="I128" s="6" t="s">
         <v>102</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="K128" s="4" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>442</v>
@@ -66907,9 +66919,6 @@
       <c r="C129" s="4" t="s">
         <v>1541</v>
       </c>
-      <c r="D129" s="4" t="s">
-        <v>1023</v>
-      </c>
       <c r="H129" s="4" t="s">
         <v>1307</v>
       </c>
@@ -66917,15 +66926,15 @@
         <v>102</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="K129" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>442</v>
@@ -66934,24 +66943,24 @@
         <v>1541</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>166</v>
+        <v>1023</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>24</v>
+        <v>1307</v>
       </c>
       <c r="I130" s="6" t="s">
         <v>102</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="K130" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>442</v>
@@ -66962,9 +66971,6 @@
       <c r="D131" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E131" s="4" t="s">
-        <v>418</v>
-      </c>
       <c r="H131" s="4" t="s">
         <v>24</v>
       </c>
@@ -66972,30 +66978,36 @@
         <v>102</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="K131" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>442</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>1550</v>
+        <v>1541</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>418</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I132" s="6" t="s">
         <v>102</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="K132" s="4" t="s">
         <v>19</v>
@@ -67003,22 +67015,22 @@
     </row>
     <row r="133" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>442</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="I133" s="6" t="s">
         <v>102</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="K133" s="4" t="s">
         <v>19</v>
@@ -67026,22 +67038,22 @@
     </row>
     <row r="134" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>442</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>236</v>
+        <v>1553</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I134" s="6" t="s">
         <v>102</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="K134" s="4" t="s">
         <v>19</v>
@@ -67049,82 +67061,85 @@
     </row>
     <row r="135" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>442</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>1558</v>
+        <v>236</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I135" s="6" t="s">
         <v>102</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="K135" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>1560</v>
+        <v>442</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>1558</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="K136" s="4" t="s">
-        <v>268</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="H137" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="K137" s="4" t="s">
-        <v>19</v>
+        <v>268</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="H138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="K138" s="4" t="s">
         <v>19</v>
@@ -67132,10 +67147,10 @@
     </row>
     <row r="139" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="H139" s="4" t="s">
         <v>24</v>
@@ -67144,18 +67159,18 @@
         <v>103</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="K139" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>84</v>
+        <v>1566</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>84</v>
+        <v>1566</v>
       </c>
       <c r="H140" s="4" t="s">
         <v>24</v>
@@ -67164,41 +67179,44 @@
         <v>103</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="K140" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="L140" s="6" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>1570</v>
+        <v>84</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C141" s="4" t="s">
-        <v>1300</v>
-      </c>
       <c r="H141" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I141" s="6" t="s">
         <v>103</v>
       </c>
+      <c r="J141" s="4" t="s">
+        <v>1568</v>
+      </c>
+      <c r="K141" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="L141" s="6" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="142" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>1560</v>
+        <v>1300</v>
       </c>
       <c r="H142" s="4" t="s">
         <v>24</v>
@@ -67209,13 +67227,13 @@
     </row>
     <row r="143" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>212</v>
+        <v>1560</v>
       </c>
       <c r="H143" s="4" t="s">
         <v>24</v>
@@ -67226,13 +67244,13 @@
     </row>
     <row r="144" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>26</v>
+        <v>212</v>
       </c>
       <c r="H144" s="4" t="s">
         <v>24</v>
@@ -67243,13 +67261,13 @@
     </row>
     <row r="145" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>1566</v>
+        <v>26</v>
       </c>
       <c r="H145" s="4" t="s">
         <v>24</v>
@@ -67260,13 +67278,13 @@
     </row>
     <row r="146" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>141</v>
+        <v>1566</v>
       </c>
       <c r="H146" s="4" t="s">
         <v>24</v>
@@ -67277,13 +67295,13 @@
     </row>
     <row r="147" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>224</v>
+        <v>141</v>
       </c>
       <c r="H147" s="4" t="s">
         <v>24</v>
@@ -67294,7 +67312,7 @@
     </row>
     <row r="148" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>84</v>
@@ -67302,9 +67320,6 @@
       <c r="C148" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D148" s="4" t="s">
-        <v>1306</v>
-      </c>
       <c r="H148" s="4" t="s">
         <v>24</v>
       </c>
@@ -67314,7 +67329,7 @@
     </row>
     <row r="149" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>84</v>
@@ -67323,7 +67338,7 @@
         <v>224</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="H149" s="4" t="s">
         <v>24</v>
@@ -67332,52 +67347,52 @@
         <v>103</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>1579</v>
+        <v>84</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>1310</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="I150" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="J150" s="4" t="s">
+    </row>
+    <row r="151" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>1579</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I151" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J151" s="4" t="s">
         <v>1580</v>
       </c>
-      <c r="K150" s="4" t="s">
+      <c r="K151" s="4" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="H151" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I151" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="J151" s="4" t="s">
-        <v>1581</v>
-      </c>
-      <c r="K151" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>1582</v>
+        <v>226</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>1582</v>
+        <v>226</v>
       </c>
       <c r="H152" s="4" t="s">
         <v>35</v>
@@ -67386,58 +67401,61 @@
         <v>102</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="K152" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="H153" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I153" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="K153" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>1584</v>
       </c>
-      <c r="C154" s="4" t="s">
-        <v>1587</v>
-      </c>
       <c r="H154" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I154" s="6" t="s">
         <v>103</v>
       </c>
+      <c r="J154" s="4" t="s">
+        <v>1585</v>
+      </c>
+      <c r="K154" s="4" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="155" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>1584</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="H155" s="4" t="s">
         <v>35</v>
@@ -67448,13 +67466,13 @@
     </row>
     <row r="156" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>1584</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>118</v>
+        <v>1589</v>
       </c>
       <c r="H156" s="4" t="s">
         <v>35</v>
@@ -67465,13 +67483,13 @@
     </row>
     <row r="157" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>1584</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="H157" s="4" t="s">
         <v>35</v>
@@ -67482,13 +67500,13 @@
     </row>
     <row r="158" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>1584</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>795</v>
+        <v>78</v>
       </c>
       <c r="H158" s="4" t="s">
         <v>35</v>
@@ -67497,12 +67515,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>1593</v>
+        <v>1584</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>795</v>
       </c>
       <c r="H159" s="4" t="s">
         <v>35</v>
@@ -67510,39 +67531,36 @@
       <c r="I159" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="J159" s="4" t="s">
-        <v>1594</v>
-      </c>
-      <c r="K159" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>1593</v>
       </c>
-      <c r="C160" s="4" t="s">
-        <v>1587</v>
-      </c>
       <c r="H160" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I160" s="6" t="s">
         <v>103</v>
       </c>
+      <c r="J160" s="4" t="s">
+        <v>1594</v>
+      </c>
+      <c r="K160" s="4" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="161" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>1593</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="H161" s="4" t="s">
         <v>35</v>
@@ -67553,13 +67571,13 @@
     </row>
     <row r="162" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>1593</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>118</v>
+        <v>1589</v>
       </c>
       <c r="H162" s="4" t="s">
         <v>35</v>
@@ -67570,13 +67588,13 @@
     </row>
     <row r="163" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>1593</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="H163" s="4" t="s">
         <v>35</v>
@@ -67587,13 +67605,13 @@
     </row>
     <row r="164" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>1593</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>795</v>
+        <v>78</v>
       </c>
       <c r="H164" s="4" t="s">
         <v>35</v>
@@ -67602,12 +67620,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>1600</v>
+        <v>1593</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>795</v>
       </c>
       <c r="H165" s="4" t="s">
         <v>35</v>
@@ -67615,43 +67636,34 @@
       <c r="I165" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="J165" s="4" t="s">
-        <v>1601</v>
-      </c>
-      <c r="K165" s="4" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="166" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>431</v>
+        <v>1600</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>431</v>
+        <v>1600</v>
       </c>
       <c r="H166" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I166" s="6" t="s">
-        <v>432</v>
+        <v>103</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>696</v>
+        <v>1601</v>
       </c>
       <c r="K166" s="4" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="C167" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="H167" s="4" t="s">
         <v>35</v>
       </c>
@@ -67659,21 +67671,21 @@
         <v>432</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>729</v>
+        <v>696</v>
       </c>
       <c r="K167" s="4" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>431</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H168" s="4" t="s">
         <v>35</v>
@@ -67682,7 +67694,7 @@
         <v>432</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K168" s="4" t="s">
         <v>19</v>
@@ -67690,13 +67702,13 @@
     </row>
     <row r="169" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>431</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H169" s="4" t="s">
         <v>35</v>
@@ -67705,58 +67717,64 @@
         <v>432</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K169" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>1602</v>
+        <v>435</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>1602</v>
+        <v>431</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="H170" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I170" s="6" t="s">
-        <v>103</v>
+        <v>432</v>
       </c>
       <c r="J170" s="4" t="s">
-        <v>1603</v>
+        <v>727</v>
       </c>
       <c r="K170" s="4" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>1602</v>
       </c>
-      <c r="C171" s="4" t="s">
-        <v>1589</v>
-      </c>
       <c r="H171" s="4" t="s">
         <v>35</v>
       </c>
       <c r="I171" s="6" t="s">
         <v>103</v>
       </c>
+      <c r="J171" s="4" t="s">
+        <v>1603</v>
+      </c>
+      <c r="K171" s="4" t="s">
+        <v>1604</v>
+      </c>
     </row>
     <row r="172" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>1602</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>1607</v>
+        <v>1589</v>
       </c>
       <c r="H172" s="4" t="s">
         <v>35</v>
@@ -67767,7 +67785,7 @@
     </row>
     <row r="173" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>1602</v>
@@ -67775,9 +67793,6 @@
       <c r="C173" s="4" t="s">
         <v>1607</v>
       </c>
-      <c r="D173" s="4" t="s">
-        <v>1609</v>
-      </c>
       <c r="H173" s="4" t="s">
         <v>35</v>
       </c>
@@ -67787,7 +67802,7 @@
     </row>
     <row r="174" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>1602</v>
@@ -67796,7 +67811,7 @@
         <v>1607</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>1331</v>
+        <v>1609</v>
       </c>
       <c r="H174" s="4" t="s">
         <v>35</v>
@@ -67807,7 +67822,7 @@
     </row>
     <row r="175" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>1602</v>
@@ -67816,7 +67831,7 @@
         <v>1607</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>1589</v>
+        <v>1331</v>
       </c>
       <c r="H175" s="4" t="s">
         <v>35</v>
@@ -67827,7 +67842,7 @@
     </row>
     <row r="176" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>1602</v>
@@ -67836,7 +67851,7 @@
         <v>1607</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>23</v>
+        <v>1589</v>
       </c>
       <c r="H176" s="4" t="s">
         <v>35</v>
@@ -67845,9 +67860,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>1602</v>
@@ -67856,7 +67871,7 @@
         <v>1607</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="H177" s="4" t="s">
         <v>35</v>
@@ -67865,9 +67880,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>1602</v>
@@ -67876,7 +67891,7 @@
         <v>1607</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="H178" s="4" t="s">
         <v>35</v>
@@ -67885,9 +67900,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>1602</v>
@@ -67896,7 +67911,7 @@
         <v>1607</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>1616</v>
+        <v>79</v>
       </c>
       <c r="H179" s="4" t="s">
         <v>35</v>
@@ -67905,9 +67920,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>1602</v>
@@ -67916,7 +67931,7 @@
         <v>1607</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="H180" s="4" t="s">
         <v>35</v>
@@ -67925,9 +67940,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>1602</v>
@@ -67936,7 +67951,7 @@
         <v>1607</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="H181" s="4" t="s">
         <v>35</v>
@@ -67945,9 +67960,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>1602</v>
@@ -67956,7 +67971,7 @@
         <v>1607</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>278</v>
+        <v>1620</v>
       </c>
       <c r="H182" s="4" t="s">
         <v>35</v>
@@ -67965,9 +67980,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>1602</v>
@@ -67976,7 +67991,7 @@
         <v>1607</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>82</v>
+        <v>278</v>
       </c>
       <c r="H183" s="4" t="s">
         <v>35</v>
@@ -67985,9 +68000,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>1602</v>
@@ -67996,7 +68011,7 @@
         <v>1607</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>1624</v>
+        <v>82</v>
       </c>
       <c r="H184" s="4" t="s">
         <v>35</v>
@@ -68005,9 +68020,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>1602</v>
@@ -68016,7 +68031,7 @@
         <v>1607</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="H185" s="4" t="s">
         <v>35</v>
@@ -68025,9 +68040,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>1602</v>
@@ -68036,7 +68051,7 @@
         <v>1607</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="H186" s="4" t="s">
         <v>35</v>
@@ -68045,9 +68060,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>1602</v>
@@ -68056,7 +68071,7 @@
         <v>1607</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>88</v>
+        <v>1628</v>
       </c>
       <c r="H187" s="4" t="s">
         <v>35</v>
@@ -68065,15 +68080,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>1602</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>1631</v>
+        <v>1607</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="H188" s="4" t="s">
         <v>35</v>
@@ -68082,15 +68100,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>1602</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="H189" s="4" t="s">
         <v>35</v>
@@ -68099,15 +68117,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>1602</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>50</v>
+        <v>1633</v>
       </c>
       <c r="H190" s="4" t="s">
         <v>35</v>
@@ -68116,15 +68134,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>1602</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>1602</v>
+        <v>50</v>
       </c>
       <c r="H191" s="4" t="s">
         <v>35</v>
@@ -68133,32 +68151,29 @@
         <v>103</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>1636</v>
+        <v>1602</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>1602</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>1316</v>
+        <v>35</v>
       </c>
       <c r="I192" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="J192" s="4" t="s">
-        <v>1637</v>
-      </c>
-      <c r="K192" s="4" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="193" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="H193" s="4" t="s">
         <v>1316</v>
@@ -68167,18 +68182,18 @@
         <v>103</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="K193" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="H194" s="4" t="s">
         <v>1316</v>
@@ -68187,18 +68202,18 @@
         <v>103</v>
       </c>
       <c r="J194" s="4" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="K194" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="H195" s="4" t="s">
         <v>1316</v>
@@ -68207,7 +68222,7 @@
         <v>103</v>
       </c>
       <c r="J195" s="4" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="K195" s="4" t="s">
         <v>19</v>
@@ -68215,10 +68230,10 @@
     </row>
     <row r="196" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="H196" s="4" t="s">
         <v>1316</v>
@@ -68227,58 +68242,61 @@
         <v>103</v>
       </c>
       <c r="J196" s="4" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="K196" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
+    <row r="197" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H197" s="4" t="s">
+        <v>1316</v>
+      </c>
+      <c r="I197" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J197" s="4" t="s">
+        <v>1645</v>
+      </c>
+      <c r="K197" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
         <v>797</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="H197" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I197" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="J197" s="4" t="s">
-        <v>962</v>
-      </c>
-      <c r="K197" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="4" t="s">
-        <v>799</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>797</v>
       </c>
-      <c r="C198" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="H198" s="4" t="s">
         <v>51</v>
       </c>
       <c r="I198" s="4" t="s">
         <v>683</v>
       </c>
+      <c r="J198" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="K198" s="4" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="199" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>797</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="H199" s="4" t="s">
         <v>51</v>
@@ -68289,7 +68307,7 @@
     </row>
     <row r="200" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>797</v>
@@ -68297,9 +68315,6 @@
       <c r="C200" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D200" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="H200" s="4" t="s">
         <v>51</v>
       </c>
@@ -68309,7 +68324,7 @@
     </row>
     <row r="201" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>797</v>
@@ -68318,7 +68333,7 @@
         <v>104</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="H201" s="4" t="s">
         <v>51</v>
@@ -68329,7 +68344,7 @@
     </row>
     <row r="202" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>797</v>
@@ -68338,7 +68353,7 @@
         <v>104</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H202" s="4" t="s">
         <v>51</v>
@@ -68349,7 +68364,7 @@
     </row>
     <row r="203" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>1203</v>
+        <v>810</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>797</v>
@@ -68358,10 +68373,10 @@
         <v>104</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I203" s="4" t="s">
         <v>683</v>
@@ -68369,7 +68384,7 @@
     </row>
     <row r="204" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>797</v>
@@ -68378,7 +68393,7 @@
         <v>104</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="H204" s="4" t="s">
         <v>54</v>
@@ -68389,7 +68404,7 @@
     </row>
     <row r="205" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>814</v>
+        <v>1204</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>797</v>
@@ -68398,10 +68413,10 @@
         <v>104</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="I205" s="4" t="s">
         <v>683</v>
@@ -68409,7 +68424,7 @@
     </row>
     <row r="206" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>797</v>
@@ -68418,10 +68433,10 @@
         <v>104</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="I206" s="4" t="s">
         <v>683</v>
@@ -68429,7 +68444,7 @@
     </row>
     <row r="207" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>797</v>
@@ -68438,10 +68453,10 @@
         <v>104</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="I207" s="4" t="s">
         <v>683</v>
@@ -68449,7 +68464,7 @@
     </row>
     <row r="208" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>797</v>
@@ -68458,7 +68473,7 @@
         <v>104</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="H208" s="4" t="s">
         <v>24</v>
@@ -68469,16 +68484,19 @@
     </row>
     <row r="209" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>797</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>37</v>
+        <v>104</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="I209" s="4" t="s">
         <v>683</v>
@@ -68486,7 +68504,7 @@
     </row>
     <row r="210" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>797</v>
@@ -68494,11 +68512,8 @@
       <c r="C210" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D210" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="H210" s="4" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="I210" s="4" t="s">
         <v>683</v>
@@ -68506,7 +68521,7 @@
     </row>
     <row r="211" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>797</v>
@@ -68515,7 +68530,7 @@
         <v>37</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H211" s="4" t="s">
         <v>24</v>
@@ -68526,16 +68541,19 @@
     </row>
     <row r="212" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>797</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="I212" s="4" t="s">
         <v>683</v>
@@ -68543,13 +68561,13 @@
     </row>
     <row r="213" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>797</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>461</v>
+        <v>48</v>
       </c>
       <c r="H213" s="4" t="s">
         <v>51</v>
@@ -68560,13 +68578,13 @@
     </row>
     <row r="214" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>797</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>278</v>
+        <v>461</v>
       </c>
       <c r="H214" s="4" t="s">
         <v>51</v>
@@ -68577,7 +68595,7 @@
     </row>
     <row r="215" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>797</v>
@@ -68585,9 +68603,6 @@
       <c r="C215" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D215" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="H215" s="4" t="s">
         <v>51</v>
       </c>
@@ -68597,7 +68612,7 @@
     </row>
     <row r="216" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>797</v>
@@ -68606,7 +68621,7 @@
         <v>278</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="H216" s="4" t="s">
         <v>51</v>
@@ -68617,7 +68632,7 @@
     </row>
     <row r="217" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>797</v>
@@ -68626,18 +68641,18 @@
         <v>278</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I217" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>797</v>
@@ -68648,9 +68663,6 @@
       <c r="D218" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E218" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="H218" s="4" t="s">
         <v>54</v>
       </c>
@@ -68660,7 +68672,7 @@
     </row>
     <row r="219" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>797</v>
@@ -68674,9 +68686,6 @@
       <c r="E219" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F219" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="H219" s="4" t="s">
         <v>54</v>
       </c>
@@ -68684,9 +68693,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>797</v>
@@ -68703,9 +68712,6 @@
       <c r="F220" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G220" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="H220" s="4" t="s">
         <v>54</v>
       </c>
@@ -68715,7 +68721,7 @@
     </row>
     <row r="221" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>797</v>
@@ -68733,7 +68739,7 @@
         <v>66</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H221" s="4" t="s">
         <v>54</v>
@@ -68744,7 +68750,7 @@
     </row>
     <row r="222" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>797</v>
@@ -68762,7 +68768,7 @@
         <v>66</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H222" s="4" t="s">
         <v>54</v>
@@ -68771,9 +68777,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>797</v>
@@ -68788,7 +68794,10 @@
         <v>145</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
+      </c>
+      <c r="G223" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="H223" s="4" t="s">
         <v>54</v>
@@ -68797,9 +68806,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>797</v>
@@ -68816,9 +68825,6 @@
       <c r="F224" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G224" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="H224" s="4" t="s">
         <v>54</v>
       </c>
@@ -68828,7 +68834,7 @@
     </row>
     <row r="225" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>797</v>
@@ -68846,7 +68852,7 @@
         <v>55</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H225" s="4" t="s">
         <v>54</v>
@@ -68857,7 +68863,7 @@
     </row>
     <row r="226" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>797</v>
@@ -68875,7 +68881,7 @@
         <v>55</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H226" s="4" t="s">
         <v>54</v>
@@ -68884,9 +68890,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>797</v>
@@ -68898,7 +68904,13 @@
         <v>155</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>166</v>
+        <v>145</v>
+      </c>
+      <c r="F227" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G227" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="H227" s="4" t="s">
         <v>54</v>
@@ -68909,7 +68921,7 @@
     </row>
     <row r="228" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>797</v>
@@ -68923,9 +68935,6 @@
       <c r="E228" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F228" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="H228" s="4" t="s">
         <v>54</v>
       </c>
@@ -68935,7 +68944,7 @@
     </row>
     <row r="229" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>797</v>
@@ -68950,7 +68959,7 @@
         <v>166</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="H229" s="4" t="s">
         <v>54</v>
@@ -68961,7 +68970,7 @@
     </row>
     <row r="230" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B230" s="4" t="s">
         <v>797</v>
@@ -68976,7 +68985,7 @@
         <v>166</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="H230" s="4" t="s">
         <v>54</v>
@@ -68987,7 +68996,7 @@
     </row>
     <row r="231" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B231" s="4" t="s">
         <v>797</v>
@@ -69004,9 +69013,6 @@
       <c r="F231" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G231" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="H231" s="4" t="s">
         <v>54</v>
       </c>
@@ -69016,7 +69022,7 @@
     </row>
     <row r="232" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>797</v>
@@ -69034,7 +69040,7 @@
         <v>120</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H232" s="4" t="s">
         <v>54</v>
@@ -69043,9 +69049,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>797</v>
@@ -69063,7 +69069,7 @@
         <v>120</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H233" s="4" t="s">
         <v>54</v>
@@ -69072,9 +69078,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B234" s="4" t="s">
         <v>797</v>
@@ -69092,7 +69098,7 @@
         <v>120</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H234" s="4" t="s">
         <v>54</v>
@@ -69103,7 +69109,7 @@
     </row>
     <row r="235" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B235" s="4" t="s">
         <v>797</v>
@@ -69121,7 +69127,7 @@
         <v>120</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H235" s="4" t="s">
         <v>54</v>
@@ -69132,7 +69138,7 @@
     </row>
     <row r="236" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>797</v>
@@ -69150,7 +69156,7 @@
         <v>120</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H236" s="4" t="s">
         <v>54</v>
@@ -69161,7 +69167,7 @@
     </row>
     <row r="237" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B237" s="4" t="s">
         <v>797</v>
@@ -69176,7 +69182,10 @@
         <v>166</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>177</v>
+        <v>120</v>
+      </c>
+      <c r="G237" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="H237" s="4" t="s">
         <v>54</v>
@@ -69187,7 +69196,7 @@
     </row>
     <row r="238" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B238" s="4" t="s">
         <v>797</v>
@@ -69204,9 +69213,6 @@
       <c r="F238" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G238" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="H238" s="4" t="s">
         <v>54</v>
       </c>
@@ -69214,9 +69220,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B239" s="4" t="s">
         <v>797</v>
@@ -69234,7 +69240,7 @@
         <v>177</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H239" s="4" t="s">
         <v>54</v>
@@ -69243,9 +69249,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>797</v>
@@ -69260,7 +69266,10 @@
         <v>166</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>118</v>
+        <v>177</v>
+      </c>
+      <c r="G240" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="H240" s="4" t="s">
         <v>54</v>
@@ -69271,7 +69280,7 @@
     </row>
     <row r="241" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B241" s="4" t="s">
         <v>797</v>
@@ -69286,7 +69295,7 @@
         <v>166</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="H241" s="4" t="s">
         <v>54</v>
@@ -69295,9 +69304,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B242" s="4" t="s">
         <v>797</v>
@@ -69306,10 +69315,16 @@
         <v>278</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>113</v>
+        <v>155</v>
+      </c>
+      <c r="E242" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F242" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="H242" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I242" s="4" t="s">
         <v>683</v>
@@ -69317,7 +69332,7 @@
     </row>
     <row r="243" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B243" s="4" t="s">
         <v>797</v>
@@ -69326,10 +69341,10 @@
         <v>278</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="H243" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I243" s="4" t="s">
         <v>683</v>
@@ -69337,7 +69352,7 @@
     </row>
     <row r="244" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>797</v>
@@ -69346,7 +69361,7 @@
         <v>278</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="H244" s="4" t="s">
         <v>54</v>
@@ -69357,7 +69372,7 @@
     </row>
     <row r="245" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B245" s="4" t="s">
         <v>797</v>
@@ -69366,7 +69381,7 @@
         <v>278</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H245" s="4" t="s">
         <v>54</v>
@@ -69377,7 +69392,7 @@
     </row>
     <row r="246" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B246" s="4" t="s">
         <v>797</v>
@@ -69386,10 +69401,10 @@
         <v>278</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>118</v>
+        <v>232</v>
       </c>
       <c r="H246" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I246" s="4" t="s">
         <v>683</v>
@@ -69397,7 +69412,7 @@
     </row>
     <row r="247" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B247" s="4" t="s">
         <v>797</v>
@@ -69406,7 +69421,7 @@
         <v>278</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="H247" s="4" t="s">
         <v>51</v>
@@ -69417,7 +69432,7 @@
     </row>
     <row r="248" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>797</v>
@@ -69426,10 +69441,10 @@
         <v>278</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H248" s="4" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="I248" s="4" t="s">
         <v>683</v>
@@ -69437,7 +69452,7 @@
     </row>
     <row r="249" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>797</v>
@@ -69446,10 +69461,10 @@
         <v>278</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="H249" s="4" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="I249" s="4" t="s">
         <v>683</v>
@@ -69457,7 +69472,7 @@
     </row>
     <row r="250" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>797</v>
@@ -69466,61 +69481,64 @@
         <v>278</v>
       </c>
       <c r="D250" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H250" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I250" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A251" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D251" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="H250" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I250" s="4" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A251" s="2" t="s">
+      <c r="H251" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I251" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="B251" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="H251" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I251" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="J251" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="K251" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A252" s="4" t="s">
-        <v>449</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="C252" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="H252" s="4" t="s">
         <v>31</v>
       </c>
       <c r="I252" s="4" t="s">
         <v>683</v>
       </c>
+      <c r="J252" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="K252" s="4" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="253" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>448</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="H253" s="4" t="s">
         <v>31</v>
@@ -69531,7 +69549,7 @@
     </row>
     <row r="254" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B254" s="4" t="s">
         <v>448</v>
@@ -69539,9 +69557,6 @@
       <c r="C254" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D254" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="H254" s="4" t="s">
         <v>31</v>
       </c>
@@ -69551,7 +69566,7 @@
     </row>
     <row r="255" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B255" s="4" t="s">
         <v>448</v>
@@ -69560,7 +69575,7 @@
         <v>104</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="H255" s="4" t="s">
         <v>31</v>
@@ -69571,7 +69586,7 @@
     </row>
     <row r="256" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>1646</v>
+        <v>452</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>448</v>
@@ -69580,10 +69595,10 @@
         <v>104</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>226</v>
+        <v>107</v>
       </c>
       <c r="H256" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I256" s="4" t="s">
         <v>683</v>
@@ -69591,7 +69606,7 @@
     </row>
     <row r="257" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>453</v>
+        <v>1646</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>448</v>
@@ -69600,10 +69615,10 @@
         <v>104</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>113</v>
+        <v>226</v>
       </c>
       <c r="H257" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I257" s="4" t="s">
         <v>683</v>
@@ -69611,7 +69626,7 @@
     </row>
     <row r="258" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B258" s="4" t="s">
         <v>448</v>
@@ -69620,7 +69635,7 @@
         <v>104</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H258" s="4" t="s">
         <v>31</v>
@@ -69631,7 +69646,7 @@
     </row>
     <row r="259" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B259" s="4" t="s">
         <v>448</v>
@@ -69640,7 +69655,7 @@
         <v>104</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="H259" s="4" t="s">
         <v>31</v>
@@ -69651,7 +69666,7 @@
     </row>
     <row r="260" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B260" s="4" t="s">
         <v>448</v>
@@ -69660,7 +69675,7 @@
         <v>104</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H260" s="4" t="s">
         <v>31</v>
@@ -69671,7 +69686,7 @@
     </row>
     <row r="261" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
-        <v>1217</v>
+        <v>456</v>
       </c>
       <c r="B261" s="4" t="s">
         <v>448</v>
@@ -69680,10 +69695,10 @@
         <v>104</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="H261" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I261" s="4" t="s">
         <v>683</v>
@@ -69691,24 +69706,27 @@
     </row>
     <row r="262" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
-        <v>457</v>
+        <v>1217</v>
       </c>
       <c r="B262" s="4" t="s">
         <v>448</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>37</v>
+        <v>104</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="H262" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I262" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>1218</v>
+        <v>457</v>
       </c>
       <c r="B263" s="4" t="s">
         <v>448</v>
@@ -69716,9 +69734,6 @@
       <c r="C263" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D263" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="H263" s="4" t="s">
         <v>31</v>
       </c>
@@ -69726,9 +69741,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
-        <v>458</v>
+        <v>1218</v>
       </c>
       <c r="B264" s="4" t="s">
         <v>448</v>
@@ -69737,7 +69752,7 @@
         <v>37</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H264" s="4" t="s">
         <v>31</v>
@@ -69748,13 +69763,16 @@
     </row>
     <row r="265" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B265" s="4" t="s">
         <v>448</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="H265" s="4" t="s">
         <v>31</v>
@@ -69765,13 +69783,13 @@
     </row>
     <row r="266" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B266" s="4" t="s">
         <v>448</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>461</v>
+        <v>48</v>
       </c>
       <c r="H266" s="4" t="s">
         <v>31</v>
@@ -69782,13 +69800,13 @@
     </row>
     <row r="267" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B267" s="4" t="s">
         <v>448</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>278</v>
+        <v>461</v>
       </c>
       <c r="H267" s="4" t="s">
         <v>31</v>
@@ -69799,7 +69817,7 @@
     </row>
     <row r="268" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B268" s="4" t="s">
         <v>448</v>
@@ -69807,9 +69825,6 @@
       <c r="C268" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D268" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="H268" s="4" t="s">
         <v>31</v>
       </c>
@@ -69819,7 +69834,7 @@
     </row>
     <row r="269" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B269" s="4" t="s">
         <v>448</v>
@@ -69828,7 +69843,7 @@
         <v>278</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="H269" s="4" t="s">
         <v>31</v>
@@ -69839,7 +69854,7 @@
     </row>
     <row r="270" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B270" s="4" t="s">
         <v>448</v>
@@ -69848,7 +69863,7 @@
         <v>278</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H270" s="4" t="s">
         <v>31</v>
@@ -69859,7 +69874,7 @@
     </row>
     <row r="271" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B271" s="4" t="s">
         <v>448</v>
@@ -69868,7 +69883,7 @@
         <v>278</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H271" s="4" t="s">
         <v>31</v>
@@ -69879,7 +69894,7 @@
     </row>
     <row r="272" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B272" s="4" t="s">
         <v>448</v>
@@ -69888,7 +69903,7 @@
         <v>278</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="H272" s="4" t="s">
         <v>31</v>
@@ -69899,7 +69914,7 @@
     </row>
     <row r="273" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B273" s="4" t="s">
         <v>448</v>
@@ -69908,7 +69923,7 @@
         <v>278</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H273" s="4" t="s">
         <v>31</v>
@@ -69919,7 +69934,7 @@
     </row>
     <row r="274" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
-        <v>1219</v>
+        <v>468</v>
       </c>
       <c r="B274" s="4" t="s">
         <v>448</v>
@@ -69928,61 +69943,64 @@
         <v>278</v>
       </c>
       <c r="D274" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H274" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I274" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A275" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D275" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H274" s="4" t="s">
+      <c r="H275" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I274" s="4" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A275" s="2" t="s">
+      <c r="I275" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="B275" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="H275" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I275" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="J275" s="4" t="s">
-        <v>962</v>
-      </c>
-      <c r="K275" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A276" s="4" t="s">
-        <v>470</v>
       </c>
       <c r="B276" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C276" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="H276" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I276" s="4" t="s">
         <v>683</v>
       </c>
+      <c r="J276" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="K276" s="4" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="277" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B277" s="4" t="s">
         <v>469</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="H277" s="4" t="s">
         <v>27</v>
@@ -69993,7 +70011,7 @@
     </row>
     <row r="278" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B278" s="4" t="s">
         <v>469</v>
@@ -70001,9 +70019,6 @@
       <c r="C278" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D278" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="H278" s="4" t="s">
         <v>27</v>
       </c>
@@ -70013,7 +70028,7 @@
     </row>
     <row r="279" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B279" s="4" t="s">
         <v>469</v>
@@ -70022,7 +70037,7 @@
         <v>104</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="H279" s="4" t="s">
         <v>27</v>
@@ -70031,9 +70046,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
-        <v>1647</v>
+        <v>473</v>
       </c>
       <c r="B280" s="4" t="s">
         <v>469</v>
@@ -70042,18 +70057,18 @@
         <v>104</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>226</v>
+        <v>107</v>
       </c>
       <c r="H280" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I280" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
-        <v>494</v>
+        <v>1647</v>
       </c>
       <c r="B281" s="4" t="s">
         <v>469</v>
@@ -70062,18 +70077,18 @@
         <v>104</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>113</v>
+        <v>226</v>
       </c>
       <c r="H281" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I281" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B282" s="4" t="s">
         <v>469</v>
@@ -70082,10 +70097,10 @@
         <v>104</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="H282" s="4" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I282" s="4" t="s">
         <v>683</v>
@@ -70093,7 +70108,7 @@
     </row>
     <row r="283" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B283" s="4" t="s">
         <v>469</v>
@@ -70102,7 +70117,7 @@
         <v>104</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="H283" s="4" t="s">
         <v>54</v>
@@ -70111,9 +70126,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B284" s="4" t="s">
         <v>469</v>
@@ -70122,10 +70137,10 @@
         <v>104</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="H284" s="4" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I284" s="4" t="s">
         <v>683</v>
@@ -70133,7 +70148,7 @@
     </row>
     <row r="285" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B285" s="4" t="s">
         <v>469</v>
@@ -70142,7 +70157,7 @@
         <v>104</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="H285" s="4" t="s">
         <v>27</v>
@@ -70151,9 +70166,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B286" s="4" t="s">
         <v>469</v>
@@ -70162,10 +70177,10 @@
         <v>104</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H286" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I286" s="4" t="s">
         <v>683</v>
@@ -70173,7 +70188,7 @@
     </row>
     <row r="287" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B287" s="4" t="s">
         <v>469</v>
@@ -70182,7 +70197,7 @@
         <v>104</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="H287" s="4" t="s">
         <v>31</v>
@@ -70193,7 +70208,7 @@
     </row>
     <row r="288" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
-        <v>1648</v>
+        <v>505</v>
       </c>
       <c r="B288" s="4" t="s">
         <v>469</v>
@@ -70202,10 +70217,10 @@
         <v>104</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="H288" s="4" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="I288" s="4" t="s">
         <v>683</v>
@@ -70213,7 +70228,7 @@
     </row>
     <row r="289" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B289" s="4" t="s">
         <v>469</v>
@@ -70222,7 +70237,7 @@
         <v>104</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>236</v>
+        <v>141</v>
       </c>
       <c r="H289" s="4" t="s">
         <v>54</v>
@@ -70231,26 +70246,29 @@
         <v>683</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
-        <v>507</v>
+        <v>1649</v>
       </c>
       <c r="B290" s="4" t="s">
         <v>469</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>37</v>
+        <v>104</v>
+      </c>
+      <c r="D290" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="H290" s="4" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I290" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
-        <v>870</v>
+        <v>507</v>
       </c>
       <c r="B291" s="4" t="s">
         <v>469</v>
@@ -70258,11 +70276,8 @@
       <c r="C291" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D291" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="H291" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I291" s="4" t="s">
         <v>683</v>
@@ -70270,7 +70285,7 @@
     </row>
     <row r="292" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
-        <v>508</v>
+        <v>870</v>
       </c>
       <c r="B292" s="4" t="s">
         <v>469</v>
@@ -70279,7 +70294,7 @@
         <v>37</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H292" s="4" t="s">
         <v>31</v>
@@ -70288,18 +70303,21 @@
         <v>683</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B293" s="4" t="s">
         <v>469</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="D293" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="H293" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I293" s="4" t="s">
         <v>683</v>
@@ -70307,13 +70325,13 @@
     </row>
     <row r="294" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B294" s="4" t="s">
         <v>469</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>461</v>
+        <v>48</v>
       </c>
       <c r="H294" s="4" t="s">
         <v>27</v>
@@ -70324,13 +70342,13 @@
     </row>
     <row r="295" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B295" s="4" t="s">
         <v>469</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>278</v>
+        <v>461</v>
       </c>
       <c r="H295" s="4" t="s">
         <v>27</v>
@@ -70341,7 +70359,7 @@
     </row>
     <row r="296" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B296" s="4" t="s">
         <v>469</v>
@@ -70349,9 +70367,6 @@
       <c r="C296" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D296" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="H296" s="4" t="s">
         <v>27</v>
       </c>
@@ -70361,7 +70376,7 @@
     </row>
     <row r="297" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B297" s="4" t="s">
         <v>469</v>
@@ -70370,7 +70385,7 @@
         <v>278</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="H297" s="4" t="s">
         <v>27</v>
@@ -70379,9 +70394,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B298" s="4" t="s">
         <v>469</v>
@@ -70390,18 +70405,18 @@
         <v>278</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="H298" s="4" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I298" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B299" s="4" t="s">
         <v>469</v>
@@ -70412,9 +70427,6 @@
       <c r="D299" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E299" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="H299" s="4" t="s">
         <v>54</v>
       </c>
@@ -70424,7 +70436,7 @@
     </row>
     <row r="300" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B300" s="4" t="s">
         <v>469</v>
@@ -70436,7 +70448,7 @@
         <v>134</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H300" s="4" t="s">
         <v>54</v>
@@ -70447,7 +70459,7 @@
     </row>
     <row r="301" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B301" s="4" t="s">
         <v>469</v>
@@ -70459,7 +70471,7 @@
         <v>134</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="H301" s="4" t="s">
         <v>54</v>
@@ -70470,7 +70482,7 @@
     </row>
     <row r="302" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B302" s="4" t="s">
         <v>469</v>
@@ -70482,7 +70494,7 @@
         <v>134</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="H302" s="4" t="s">
         <v>54</v>
@@ -70493,7 +70505,7 @@
     </row>
     <row r="303" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B303" s="4" t="s">
         <v>469</v>
@@ -70502,18 +70514,21 @@
         <v>278</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>113</v>
+        <v>134</v>
+      </c>
+      <c r="E303" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="H303" s="4" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I303" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B304" s="4" t="s">
         <v>469</v>
@@ -70522,10 +70537,10 @@
         <v>278</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>230</v>
+        <v>113</v>
       </c>
       <c r="H304" s="4" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I304" s="4" t="s">
         <v>683</v>
@@ -70533,7 +70548,7 @@
     </row>
     <row r="305" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B305" s="4" t="s">
         <v>469</v>
@@ -70542,7 +70557,7 @@
         <v>278</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H305" s="4" t="s">
         <v>54</v>
@@ -70553,7 +70568,7 @@
     </row>
     <row r="306" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B306" s="4" t="s">
         <v>469</v>
@@ -70562,7 +70577,7 @@
         <v>278</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H306" s="4" t="s">
         <v>54</v>
@@ -70571,9 +70586,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="307" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B307" s="4" t="s">
         <v>469</v>
@@ -70582,10 +70597,10 @@
         <v>278</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>118</v>
+        <v>234</v>
       </c>
       <c r="H307" s="4" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I307" s="4" t="s">
         <v>683</v>
@@ -70593,7 +70608,7 @@
     </row>
     <row r="308" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B308" s="4" t="s">
         <v>469</v>
@@ -70602,7 +70617,7 @@
         <v>278</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="H308" s="4" t="s">
         <v>27</v>
@@ -70611,9 +70626,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B309" s="4" t="s">
         <v>469</v>
@@ -70622,18 +70637,18 @@
         <v>278</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H309" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I309" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B310" s="4" t="s">
         <v>469</v>
@@ -70642,18 +70657,18 @@
         <v>278</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="H310" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I310" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B311" s="4" t="s">
         <v>469</v>
@@ -70662,18 +70677,18 @@
         <v>278</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>217</v>
+        <v>116</v>
       </c>
       <c r="H311" s="4" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I311" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="312" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B312" s="4" t="s">
         <v>469</v>
@@ -70684,9 +70699,6 @@
       <c r="D312" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E312" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="H312" s="4" t="s">
         <v>54</v>
       </c>
@@ -70696,7 +70708,7 @@
     </row>
     <row r="313" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B313" s="4" t="s">
         <v>469</v>
@@ -70708,7 +70720,7 @@
         <v>217</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H313" s="4" t="s">
         <v>54</v>
@@ -70717,9 +70729,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B314" s="4" t="s">
         <v>469</v>
@@ -70731,7 +70743,7 @@
         <v>217</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="H314" s="4" t="s">
         <v>54</v>
@@ -70742,7 +70754,7 @@
     </row>
     <row r="315" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B315" s="4" t="s">
         <v>469</v>
@@ -70754,61 +70766,67 @@
         <v>217</v>
       </c>
       <c r="E315" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H315" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I315" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A316" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D316" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E316" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H315" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I315" s="4" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="316" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A316" s="2" t="s">
+      <c r="H316" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I316" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A317" s="2" t="s">
         <v>532</v>
-      </c>
-      <c r="B316" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="H316" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I316" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="J316" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="K316" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="317" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A317" s="4" t="s">
-        <v>533</v>
       </c>
       <c r="B317" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="C317" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="H317" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I317" s="4" t="s">
         <v>683</v>
       </c>
+      <c r="J317" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="K317" s="4" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="318" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B318" s="4" t="s">
         <v>532</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="H318" s="4" t="s">
         <v>27</v>
@@ -70819,7 +70837,7 @@
     </row>
     <row r="319" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B319" s="4" t="s">
         <v>532</v>
@@ -70827,9 +70845,6 @@
       <c r="C319" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D319" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="H319" s="4" t="s">
         <v>27</v>
       </c>
@@ -70839,7 +70854,7 @@
     </row>
     <row r="320" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B320" s="4" t="s">
         <v>532</v>
@@ -70848,7 +70863,7 @@
         <v>104</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="H320" s="4" t="s">
         <v>27</v>
@@ -70857,9 +70872,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B321" s="4" t="s">
         <v>532</v>
@@ -70868,10 +70883,10 @@
         <v>104</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="H321" s="4" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I321" s="4" t="s">
         <v>683</v>
@@ -70879,7 +70894,7 @@
     </row>
     <row r="322" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B322" s="4" t="s">
         <v>532</v>
@@ -70890,9 +70905,6 @@
       <c r="D322" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E322" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="H322" s="4" t="s">
         <v>54</v>
       </c>
@@ -70902,7 +70914,7 @@
     </row>
     <row r="323" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B323" s="4" t="s">
         <v>532</v>
@@ -70914,7 +70926,7 @@
         <v>120</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H323" s="4" t="s">
         <v>54</v>
@@ -70925,7 +70937,7 @@
     </row>
     <row r="324" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B324" s="4" t="s">
         <v>532</v>
@@ -70937,7 +70949,7 @@
         <v>120</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H324" s="4" t="s">
         <v>54</v>
@@ -70948,7 +70960,7 @@
     </row>
     <row r="325" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B325" s="4" t="s">
         <v>532</v>
@@ -70960,7 +70972,7 @@
         <v>120</v>
       </c>
       <c r="E325" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H325" s="4" t="s">
         <v>54</v>
@@ -70971,7 +70983,7 @@
     </row>
     <row r="326" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B326" s="4" t="s">
         <v>532</v>
@@ -70983,7 +70995,7 @@
         <v>120</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H326" s="4" t="s">
         <v>54</v>
@@ -70994,7 +71006,7 @@
     </row>
     <row r="327" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B327" s="4" t="s">
         <v>532</v>
@@ -71006,7 +71018,7 @@
         <v>120</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H327" s="4" t="s">
         <v>54</v>
@@ -71015,9 +71027,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B328" s="4" t="s">
         <v>532</v>
@@ -71026,18 +71038,21 @@
         <v>104</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="E328" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="H328" s="4" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I328" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B329" s="4" t="s">
         <v>532</v>
@@ -71046,10 +71061,10 @@
         <v>104</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>177</v>
+        <v>113</v>
       </c>
       <c r="H329" s="4" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I329" s="4" t="s">
         <v>683</v>
@@ -71057,7 +71072,7 @@
     </row>
     <row r="330" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B330" s="4" t="s">
         <v>532</v>
@@ -71068,9 +71083,6 @@
       <c r="D330" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E330" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="H330" s="4" t="s">
         <v>54</v>
       </c>
@@ -71080,7 +71092,7 @@
     </row>
     <row r="331" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B331" s="4" t="s">
         <v>532</v>
@@ -71092,7 +71104,7 @@
         <v>177</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H331" s="4" t="s">
         <v>54</v>
@@ -71101,9 +71113,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="332" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B332" s="4" t="s">
         <v>532</v>
@@ -71112,10 +71124,13 @@
         <v>104</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>118</v>
+        <v>177</v>
+      </c>
+      <c r="E332" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="H332" s="4" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I332" s="4" t="s">
         <v>683</v>
@@ -71123,7 +71138,7 @@
     </row>
     <row r="333" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B333" s="4" t="s">
         <v>532</v>
@@ -71132,7 +71147,7 @@
         <v>104</v>
       </c>
       <c r="D333" s="4" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="H333" s="4" t="s">
         <v>27</v>
@@ -71141,9 +71156,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
-        <v>872</v>
+        <v>549</v>
       </c>
       <c r="B334" s="4" t="s">
         <v>532</v>
@@ -71152,10 +71167,10 @@
         <v>104</v>
       </c>
       <c r="D334" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H334" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I334" s="4" t="s">
         <v>683</v>
@@ -71163,7 +71178,7 @@
     </row>
     <row r="335" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B335" s="4" t="s">
         <v>532</v>
@@ -71172,35 +71187,38 @@
         <v>104</v>
       </c>
       <c r="D335" s="4" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="H335" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I335" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="336" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
-        <v>550</v>
+        <v>873</v>
       </c>
       <c r="B336" s="4" t="s">
         <v>532</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>37</v>
+        <v>104</v>
+      </c>
+      <c r="D336" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="H336" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I336" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="337" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A337" s="4" t="s">
-        <v>874</v>
+        <v>550</v>
       </c>
       <c r="B337" s="4" t="s">
         <v>532</v>
@@ -71208,19 +71226,16 @@
       <c r="C337" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D337" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="H337" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I337" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="338" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B338" s="4" t="s">
         <v>532</v>
@@ -71229,41 +71244,44 @@
         <v>37</v>
       </c>
       <c r="D338" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H338" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I338" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="339" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
-        <v>551</v>
+        <v>875</v>
       </c>
       <c r="B339" s="4" t="s">
         <v>532</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="D339" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="H339" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I339" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="340" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B340" s="4" t="s">
         <v>532</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>461</v>
+        <v>48</v>
       </c>
       <c r="H340" s="4" t="s">
         <v>27</v>
@@ -71272,15 +71290,15 @@
         <v>683</v>
       </c>
     </row>
-    <row r="341" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A341" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B341" s="4" t="s">
         <v>532</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>278</v>
+        <v>461</v>
       </c>
       <c r="H341" s="4" t="s">
         <v>27</v>
@@ -71289,9 +71307,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="342" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A342" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B342" s="4" t="s">
         <v>532</v>
@@ -71299,9 +71317,6 @@
       <c r="C342" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D342" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="H342" s="4" t="s">
         <v>27</v>
       </c>
@@ -71309,9 +71324,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="343" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B343" s="4" t="s">
         <v>532</v>
@@ -71320,7 +71335,7 @@
         <v>278</v>
       </c>
       <c r="D343" s="4" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="H343" s="4" t="s">
         <v>27</v>
@@ -71329,9 +71344,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="344" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="B344" s="4" t="s">
         <v>532</v>
@@ -71340,7 +71355,7 @@
         <v>278</v>
       </c>
       <c r="D344" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H344" s="4" t="s">
         <v>27</v>
@@ -71349,9 +71364,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="345" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B345" s="4" t="s">
         <v>532</v>
@@ -71360,18 +71375,18 @@
         <v>278</v>
       </c>
       <c r="D345" s="4" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="H345" s="4" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I345" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="346" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B346" s="4" t="s">
         <v>532</v>
@@ -71380,7 +71395,7 @@
         <v>278</v>
       </c>
       <c r="D346" s="4" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="H346" s="4" t="s">
         <v>54</v>
@@ -71389,9 +71404,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="347" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A347" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B347" s="4" t="s">
         <v>532</v>
@@ -71400,18 +71415,18 @@
         <v>278</v>
       </c>
       <c r="D347" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="H347" s="4" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I347" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="348" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B348" s="4" t="s">
         <v>532</v>
@@ -71420,7 +71435,7 @@
         <v>278</v>
       </c>
       <c r="D348" s="4" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="H348" s="4" t="s">
         <v>27</v>
@@ -71429,9 +71444,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="349" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A349" s="4" t="s">
-        <v>877</v>
+        <v>585</v>
       </c>
       <c r="B349" s="4" t="s">
         <v>532</v>
@@ -71440,18 +71455,18 @@
         <v>278</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H349" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I349" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="350" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="s">
-        <v>586</v>
+        <v>877</v>
       </c>
       <c r="B350" s="4" t="s">
         <v>532</v>
@@ -71460,18 +71475,18 @@
         <v>278</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="H350" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I350" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="351" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A351" s="4" t="s">
-        <v>1650</v>
+        <v>586</v>
       </c>
       <c r="B351" s="4" t="s">
         <v>532</v>
@@ -71480,61 +71495,64 @@
         <v>278</v>
       </c>
       <c r="D351" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H351" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I351" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A352" s="4" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B352" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C352" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D352" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H351" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I351" s="4" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="352" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A352" s="2" t="s">
+      <c r="H352" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I352" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
         <v>878</v>
-      </c>
-      <c r="B352" s="4" t="s">
-        <v>878</v>
-      </c>
-      <c r="H352" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="I352" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="J352" s="4" t="s">
-        <v>879</v>
-      </c>
-      <c r="K352" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A353" s="4" t="s">
-        <v>880</v>
       </c>
       <c r="B353" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="C353" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="H353" s="4" t="s">
         <v>690</v>
       </c>
       <c r="I353" s="4" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="354" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J353" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="K353" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A354" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B354" s="4" t="s">
         <v>878</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="H354" s="4" t="s">
         <v>690</v>
@@ -71543,9 +71561,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="355" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A355" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B355" s="4" t="s">
         <v>878</v>
@@ -71553,9 +71571,6 @@
       <c r="C355" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D355" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="H355" s="4" t="s">
         <v>690</v>
       </c>
@@ -71563,9 +71578,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="356" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B356" s="4" t="s">
         <v>878</v>
@@ -71574,7 +71589,7 @@
         <v>104</v>
       </c>
       <c r="D356" s="4" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="H356" s="4" t="s">
         <v>690</v>
@@ -71583,9 +71598,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="357" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A357" s="4" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="B357" s="4" t="s">
         <v>878</v>
@@ -71594,7 +71609,7 @@
         <v>104</v>
       </c>
       <c r="D357" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H357" s="4" t="s">
         <v>690</v>
@@ -71603,9 +71618,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A358" s="4" t="s">
-        <v>1263</v>
+        <v>891</v>
       </c>
       <c r="B358" s="4" t="s">
         <v>878</v>
@@ -71614,18 +71629,18 @@
         <v>104</v>
       </c>
       <c r="D358" s="4" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="H358" s="4" t="s">
-        <v>54</v>
+        <v>690</v>
       </c>
       <c r="I358" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A359" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B359" s="4" t="s">
         <v>878</v>
@@ -71634,7 +71649,7 @@
         <v>104</v>
       </c>
       <c r="D359" s="4" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="H359" s="4" t="s">
         <v>54</v>
@@ -71643,9 +71658,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="360" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A360" s="4" t="s">
-        <v>895</v>
+        <v>1264</v>
       </c>
       <c r="B360" s="4" t="s">
         <v>878</v>
@@ -71654,18 +71669,18 @@
         <v>104</v>
       </c>
       <c r="D360" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="H360" s="4" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="I360" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A361" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B361" s="4" t="s">
         <v>878</v>
@@ -71674,18 +71689,18 @@
         <v>104</v>
       </c>
       <c r="D361" s="4" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="H361" s="4" t="s">
-        <v>690</v>
+        <v>35</v>
       </c>
       <c r="I361" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="362" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A362" s="4" t="s">
-        <v>1266</v>
+        <v>896</v>
       </c>
       <c r="B362" s="4" t="s">
         <v>878</v>
@@ -71694,35 +71709,38 @@
         <v>104</v>
       </c>
       <c r="D362" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H362" s="4" t="s">
-        <v>35</v>
+        <v>690</v>
       </c>
       <c r="I362" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="363" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="s">
-        <v>897</v>
+        <v>1266</v>
       </c>
       <c r="B363" s="4" t="s">
         <v>878</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>37</v>
+        <v>104</v>
+      </c>
+      <c r="D363" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="H363" s="4" t="s">
-        <v>690</v>
+        <v>35</v>
       </c>
       <c r="I363" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="364" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A364" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B364" s="4" t="s">
         <v>878</v>
@@ -71730,42 +71748,42 @@
       <c r="C364" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D364" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="H364" s="4" t="s">
-        <v>35</v>
+        <v>690</v>
       </c>
       <c r="I364" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="365" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A365" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B365" s="4" t="s">
         <v>878</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="D365" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="H365" s="4" t="s">
-        <v>690</v>
+        <v>35</v>
       </c>
       <c r="I365" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="366" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A366" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B366" s="4" t="s">
         <v>878</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>461</v>
+        <v>48</v>
       </c>
       <c r="H366" s="4" t="s">
         <v>690</v>
@@ -71774,15 +71792,15 @@
         <v>683</v>
       </c>
     </row>
-    <row r="367" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B367" s="4" t="s">
         <v>878</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>278</v>
+        <v>461</v>
       </c>
       <c r="H367" s="4" t="s">
         <v>690</v>
@@ -71791,9 +71809,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="368" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A368" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B368" s="4" t="s">
         <v>878</v>
@@ -71801,9 +71819,6 @@
       <c r="C368" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D368" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="H368" s="4" t="s">
         <v>690</v>
       </c>
@@ -71811,9 +71826,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="369" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A369" s="4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B369" s="4" t="s">
         <v>878</v>
@@ -71822,7 +71837,7 @@
         <v>278</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="H369" s="4" t="s">
         <v>690</v>
@@ -71831,9 +71846,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="370" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A370" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B370" s="4" t="s">
         <v>878</v>
@@ -71842,18 +71857,18 @@
         <v>278</v>
       </c>
       <c r="D370" s="4" t="s">
-        <v>185</v>
+        <v>107</v>
       </c>
       <c r="H370" s="4" t="s">
-        <v>54</v>
+        <v>690</v>
       </c>
       <c r="I370" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="371" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A371" s="4" t="s">
-        <v>924</v>
+        <v>904</v>
       </c>
       <c r="B371" s="4" t="s">
         <v>878</v>
@@ -71862,18 +71877,18 @@
         <v>278</v>
       </c>
       <c r="D371" s="4" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="H371" s="4" t="s">
-        <v>690</v>
+        <v>54</v>
       </c>
       <c r="I371" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="372" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A372" s="4" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B372" s="4" t="s">
         <v>878</v>
@@ -71882,18 +71897,18 @@
         <v>278</v>
       </c>
       <c r="D372" s="4" t="s">
-        <v>207</v>
+        <v>113</v>
       </c>
       <c r="H372" s="4" t="s">
-        <v>54</v>
+        <v>690</v>
       </c>
       <c r="I372" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="373" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A373" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B373" s="4" t="s">
         <v>878</v>
@@ -71904,9 +71919,6 @@
       <c r="D373" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E373" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="H373" s="4" t="s">
         <v>54</v>
       </c>
@@ -71914,9 +71926,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="374" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A374" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B374" s="4" t="s">
         <v>878</v>
@@ -71928,7 +71940,7 @@
         <v>207</v>
       </c>
       <c r="E374" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H374" s="4" t="s">
         <v>54</v>
@@ -71937,9 +71949,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="375" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A375" s="4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B375" s="4" t="s">
         <v>878</v>
@@ -71951,7 +71963,7 @@
         <v>207</v>
       </c>
       <c r="E375" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H375" s="4" t="s">
         <v>54</v>
@@ -71960,9 +71972,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="376" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A376" s="4" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B376" s="4" t="s">
         <v>878</v>
@@ -71971,7 +71983,10 @@
         <v>278</v>
       </c>
       <c r="D376" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
+      </c>
+      <c r="E376" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="H376" s="4" t="s">
         <v>54</v>
@@ -71980,9 +71995,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="377" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A377" s="4" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B377" s="4" t="s">
         <v>878</v>
@@ -71991,7 +72006,7 @@
         <v>278</v>
       </c>
       <c r="D377" s="4" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="H377" s="4" t="s">
         <v>54</v>
@@ -72000,9 +72015,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="378" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B378" s="4" t="s">
         <v>878</v>
@@ -72011,7 +72026,7 @@
         <v>278</v>
       </c>
       <c r="D378" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H378" s="4" t="s">
         <v>54</v>
@@ -72020,9 +72035,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="379" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A379" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B379" s="4" t="s">
         <v>878</v>
@@ -72031,18 +72046,18 @@
         <v>278</v>
       </c>
       <c r="D379" s="4" t="s">
-        <v>118</v>
+        <v>232</v>
       </c>
       <c r="H379" s="4" t="s">
-        <v>690</v>
+        <v>54</v>
       </c>
       <c r="I379" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="380" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A380" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B380" s="4" t="s">
         <v>878</v>
@@ -72051,7 +72066,7 @@
         <v>278</v>
       </c>
       <c r="D380" s="4" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="H380" s="4" t="s">
         <v>690</v>
@@ -72060,9 +72075,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="381" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A381" s="4" t="s">
-        <v>1279</v>
+        <v>933</v>
       </c>
       <c r="B381" s="4" t="s">
         <v>878</v>
@@ -72071,18 +72086,18 @@
         <v>278</v>
       </c>
       <c r="D381" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H381" s="4" t="s">
-        <v>35</v>
+        <v>690</v>
       </c>
       <c r="I381" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="382" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A382" s="4" t="s">
-        <v>934</v>
+        <v>1279</v>
       </c>
       <c r="B382" s="4" t="s">
         <v>878</v>
@@ -72091,18 +72106,18 @@
         <v>278</v>
       </c>
       <c r="D382" s="4" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="H382" s="4" t="s">
-        <v>690</v>
+        <v>35</v>
       </c>
       <c r="I382" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="383" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A383" s="4" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B383" s="4" t="s">
         <v>878</v>
@@ -72111,61 +72126,64 @@
         <v>278</v>
       </c>
       <c r="D383" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H383" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="I383" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A384" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="B384" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="C384" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D384" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="H383" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I383" s="4" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="384" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A384" s="2" t="s">
+      <c r="H384" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I384" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A385" s="2" t="s">
         <v>588</v>
-      </c>
-      <c r="B384" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="H384" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I384" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="J384" s="4" t="s">
-        <v>936</v>
-      </c>
-      <c r="K384" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A385" s="4" t="s">
-        <v>589</v>
       </c>
       <c r="B385" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="C385" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="H385" s="4" t="s">
         <v>31</v>
       </c>
       <c r="I385" s="4" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="386" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J385" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="K385" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A386" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B386" s="4" t="s">
         <v>588</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="H386" s="4" t="s">
         <v>31</v>
@@ -72174,9 +72192,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="387" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A387" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B387" s="4" t="s">
         <v>588</v>
@@ -72184,9 +72202,6 @@
       <c r="C387" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D387" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="H387" s="4" t="s">
         <v>31</v>
       </c>
@@ -72194,9 +72209,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="388" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A388" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B388" s="4" t="s">
         <v>588</v>
@@ -72205,7 +72220,7 @@
         <v>104</v>
       </c>
       <c r="D388" s="4" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="H388" s="4" t="s">
         <v>31</v>
@@ -72214,9 +72229,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="389" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
-        <v>1280</v>
+        <v>592</v>
       </c>
       <c r="B389" s="4" t="s">
         <v>588</v>
@@ -72225,18 +72240,18 @@
         <v>104</v>
       </c>
       <c r="D389" s="4" t="s">
-        <v>226</v>
+        <v>107</v>
       </c>
       <c r="H389" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I389" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="390" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A390" s="4" t="s">
-        <v>593</v>
+        <v>1280</v>
       </c>
       <c r="B390" s="4" t="s">
         <v>588</v>
@@ -72245,18 +72260,18 @@
         <v>104</v>
       </c>
       <c r="D390" s="4" t="s">
-        <v>113</v>
+        <v>226</v>
       </c>
       <c r="H390" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I390" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="391" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A391" s="4" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B391" s="4" t="s">
         <v>588</v>
@@ -72265,7 +72280,7 @@
         <v>104</v>
       </c>
       <c r="D391" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H391" s="4" t="s">
         <v>31</v>
@@ -72274,9 +72289,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="392" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A392" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B392" s="4" t="s">
         <v>588</v>
@@ -72285,7 +72300,7 @@
         <v>104</v>
       </c>
       <c r="D392" s="4" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="H392" s="4" t="s">
         <v>31</v>
@@ -72294,9 +72309,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="393" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A393" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B393" s="4" t="s">
         <v>588</v>
@@ -72305,7 +72320,7 @@
         <v>104</v>
       </c>
       <c r="D393" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H393" s="4" t="s">
         <v>31</v>
@@ -72314,9 +72329,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="394" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A394" s="4" t="s">
-        <v>947</v>
+        <v>598</v>
       </c>
       <c r="B394" s="4" t="s">
         <v>588</v>
@@ -72325,7 +72340,7 @@
         <v>104</v>
       </c>
       <c r="D394" s="4" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="H394" s="4" t="s">
         <v>31</v>
@@ -72334,15 +72349,18 @@
         <v>683</v>
       </c>
     </row>
-    <row r="395" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A395" s="4" t="s">
-        <v>599</v>
+        <v>947</v>
       </c>
       <c r="B395" s="4" t="s">
         <v>588</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>37</v>
+        <v>104</v>
+      </c>
+      <c r="D395" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="H395" s="4" t="s">
         <v>31</v>
@@ -72351,9 +72369,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="396" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A396" s="4" t="s">
-        <v>948</v>
+        <v>599</v>
       </c>
       <c r="B396" s="4" t="s">
         <v>588</v>
@@ -72361,9 +72379,6 @@
       <c r="C396" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D396" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="H396" s="4" t="s">
         <v>31</v>
       </c>
@@ -72371,9 +72386,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="397" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A397" s="4" t="s">
-        <v>600</v>
+        <v>948</v>
       </c>
       <c r="B397" s="4" t="s">
         <v>588</v>
@@ -72382,7 +72397,7 @@
         <v>37</v>
       </c>
       <c r="D397" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H397" s="4" t="s">
         <v>31</v>
@@ -72391,15 +72406,18 @@
         <v>683</v>
       </c>
     </row>
-    <row r="398" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A398" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B398" s="4" t="s">
         <v>588</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="D398" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="H398" s="4" t="s">
         <v>31</v>
@@ -72408,15 +72426,15 @@
         <v>683</v>
       </c>
     </row>
-    <row r="399" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A399" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B399" s="4" t="s">
         <v>588</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>461</v>
+        <v>48</v>
       </c>
       <c r="H399" s="4" t="s">
         <v>31</v>
@@ -72425,15 +72443,15 @@
         <v>683</v>
       </c>
     </row>
-    <row r="400" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B400" s="4" t="s">
         <v>588</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>278</v>
+        <v>461</v>
       </c>
       <c r="H400" s="4" t="s">
         <v>31</v>
@@ -72444,7 +72462,7 @@
     </row>
     <row r="401" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A401" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B401" s="4" t="s">
         <v>588</v>
@@ -72452,9 +72470,6 @@
       <c r="C401" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D401" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="H401" s="4" t="s">
         <v>31</v>
       </c>
@@ -72464,7 +72479,7 @@
     </row>
     <row r="402" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A402" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B402" s="4" t="s">
         <v>588</v>
@@ -72473,7 +72488,7 @@
         <v>278</v>
       </c>
       <c r="D402" s="4" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="H402" s="4" t="s">
         <v>31</v>
@@ -72484,7 +72499,7 @@
     </row>
     <row r="403" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A403" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B403" s="4" t="s">
         <v>588</v>
@@ -72493,7 +72508,7 @@
         <v>278</v>
       </c>
       <c r="D403" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H403" s="4" t="s">
         <v>31</v>
@@ -72504,7 +72519,7 @@
     </row>
     <row r="404" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A404" s="4" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="B404" s="4" t="s">
         <v>588</v>
@@ -72513,7 +72528,7 @@
         <v>278</v>
       </c>
       <c r="D404" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H404" s="4" t="s">
         <v>31</v>
@@ -72524,7 +72539,7 @@
     </row>
     <row r="405" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A405" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B405" s="4" t="s">
         <v>588</v>
@@ -72533,7 +72548,7 @@
         <v>278</v>
       </c>
       <c r="D405" s="4" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="H405" s="4" t="s">
         <v>31</v>
@@ -72544,7 +72559,7 @@
     </row>
     <row r="406" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A406" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B406" s="4" t="s">
         <v>588</v>
@@ -72553,7 +72568,7 @@
         <v>278</v>
       </c>
       <c r="D406" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H406" s="4" t="s">
         <v>31</v>
@@ -72564,7 +72579,7 @@
     </row>
     <row r="407" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A407" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B407" s="4" t="s">
         <v>588</v>
@@ -72573,7 +72588,7 @@
         <v>278</v>
       </c>
       <c r="D407" s="4" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="H407" s="4" t="s">
         <v>31</v>
@@ -72582,52 +72597,55 @@
         <v>683</v>
       </c>
     </row>
-    <row r="408" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A408" s="2" t="s">
+    <row r="408" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A408" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="B408" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C408" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D408" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H408" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I408" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A409" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="B408" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="H408" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I408" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="J408" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="K408" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="409" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A409" s="4" t="s">
-        <v>621</v>
       </c>
       <c r="B409" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="C409" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="H409" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I409" s="4" t="s">
         <v>683</v>
       </c>
+      <c r="J409" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="K409" s="4" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="410" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A410" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B410" s="4" t="s">
         <v>620</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="H410" s="4" t="s">
         <v>27</v>
@@ -72638,7 +72656,7 @@
     </row>
     <row r="411" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A411" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B411" s="4" t="s">
         <v>620</v>
@@ -72646,9 +72664,6 @@
       <c r="C411" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D411" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="H411" s="4" t="s">
         <v>27</v>
       </c>
@@ -72658,7 +72673,7 @@
     </row>
     <row r="412" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A412" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B412" s="4" t="s">
         <v>620</v>
@@ -72667,7 +72682,7 @@
         <v>104</v>
       </c>
       <c r="D412" s="4" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="H412" s="4" t="s">
         <v>27</v>
@@ -72676,9 +72691,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="413" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A413" s="4" t="s">
-        <v>1651</v>
+        <v>624</v>
       </c>
       <c r="B413" s="4" t="s">
         <v>620</v>
@@ -72687,18 +72702,18 @@
         <v>104</v>
       </c>
       <c r="D413" s="4" t="s">
-        <v>226</v>
+        <v>107</v>
       </c>
       <c r="H413" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I413" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="414" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A414" s="4" t="s">
-        <v>644</v>
+        <v>1651</v>
       </c>
       <c r="B414" s="4" t="s">
         <v>620</v>
@@ -72707,18 +72722,18 @@
         <v>104</v>
       </c>
       <c r="D414" s="4" t="s">
-        <v>113</v>
+        <v>226</v>
       </c>
       <c r="H414" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I414" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="415" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A415" s="4" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B415" s="4" t="s">
         <v>620</v>
@@ -72727,10 +72742,10 @@
         <v>104</v>
       </c>
       <c r="D415" s="4" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="H415" s="4" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I415" s="4" t="s">
         <v>683</v>
@@ -72738,7 +72753,7 @@
     </row>
     <row r="416" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A416" s="4" t="s">
-        <v>1652</v>
+        <v>649</v>
       </c>
       <c r="B416" s="4" t="s">
         <v>620</v>
@@ -72747,7 +72762,7 @@
         <v>104</v>
       </c>
       <c r="D416" s="4" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="H416" s="4" t="s">
         <v>54</v>
@@ -72758,7 +72773,7 @@
     </row>
     <row r="417" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A417" s="4" t="s">
-        <v>650</v>
+        <v>1652</v>
       </c>
       <c r="B417" s="4" t="s">
         <v>620</v>
@@ -72767,7 +72782,7 @@
         <v>104</v>
       </c>
       <c r="D417" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H417" s="4" t="s">
         <v>54</v>
@@ -72776,9 +72791,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A418" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B418" s="4" t="s">
         <v>620</v>
@@ -72787,10 +72802,10 @@
         <v>104</v>
       </c>
       <c r="D418" s="4" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="H418" s="4" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I418" s="4" t="s">
         <v>683</v>
@@ -72798,7 +72813,7 @@
     </row>
     <row r="419" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A419" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B419" s="4" t="s">
         <v>620</v>
@@ -72807,7 +72822,7 @@
         <v>104</v>
       </c>
       <c r="D419" s="4" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="H419" s="4" t="s">
         <v>27</v>
@@ -72816,9 +72831,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="420" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A420" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B420" s="4" t="s">
         <v>620</v>
@@ -72827,10 +72842,10 @@
         <v>104</v>
       </c>
       <c r="D420" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H420" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I420" s="4" t="s">
         <v>683</v>
@@ -72838,7 +72853,7 @@
     </row>
     <row r="421" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A421" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B421" s="4" t="s">
         <v>620</v>
@@ -72847,7 +72862,7 @@
         <v>104</v>
       </c>
       <c r="D421" s="4" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="H421" s="4" t="s">
         <v>31</v>
@@ -72858,7 +72873,7 @@
     </row>
     <row r="422" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A422" s="4" t="s">
-        <v>1653</v>
+        <v>655</v>
       </c>
       <c r="B422" s="4" t="s">
         <v>620</v>
@@ -72867,35 +72882,38 @@
         <v>104</v>
       </c>
       <c r="D422" s="4" t="s">
-        <v>236</v>
+        <v>116</v>
       </c>
       <c r="H422" s="4" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="I422" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="423" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A423" s="4" t="s">
-        <v>657</v>
+        <v>1653</v>
       </c>
       <c r="B423" s="4" t="s">
         <v>620</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>37</v>
+        <v>104</v>
+      </c>
+      <c r="D423" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="H423" s="4" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I423" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="424" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A424" s="4" t="s">
-        <v>960</v>
+        <v>657</v>
       </c>
       <c r="B424" s="4" t="s">
         <v>620</v>
@@ -72903,11 +72921,8 @@
       <c r="C424" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D424" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="H424" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I424" s="4" t="s">
         <v>683</v>
@@ -72915,7 +72930,7 @@
     </row>
     <row r="425" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A425" s="4" t="s">
-        <v>658</v>
+        <v>960</v>
       </c>
       <c r="B425" s="4" t="s">
         <v>620</v>
@@ -72924,7 +72939,7 @@
         <v>37</v>
       </c>
       <c r="D425" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H425" s="4" t="s">
         <v>31</v>
@@ -72933,18 +72948,21 @@
         <v>683</v>
       </c>
     </row>
-    <row r="426" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A426" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B426" s="4" t="s">
         <v>620</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="D426" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="H426" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I426" s="4" t="s">
         <v>683</v>
@@ -72952,13 +72970,13 @@
     </row>
     <row r="427" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A427" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B427" s="4" t="s">
         <v>620</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>461</v>
+        <v>48</v>
       </c>
       <c r="H427" s="4" t="s">
         <v>27</v>
@@ -72969,13 +72987,13 @@
     </row>
     <row r="428" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A428" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B428" s="4" t="s">
         <v>620</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>278</v>
+        <v>461</v>
       </c>
       <c r="H428" s="4" t="s">
         <v>27</v>
@@ -72986,7 +73004,7 @@
     </row>
     <row r="429" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A429" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B429" s="4" t="s">
         <v>620</v>
@@ -72994,9 +73012,6 @@
       <c r="C429" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D429" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="H429" s="4" t="s">
         <v>27</v>
       </c>
@@ -73006,7 +73021,7 @@
     </row>
     <row r="430" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A430" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B430" s="4" t="s">
         <v>620</v>
@@ -73015,7 +73030,7 @@
         <v>278</v>
       </c>
       <c r="D430" s="4" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="H430" s="4" t="s">
         <v>27</v>
@@ -73024,9 +73039,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="431" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A431" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B431" s="4" t="s">
         <v>620</v>
@@ -73035,18 +73050,18 @@
         <v>278</v>
       </c>
       <c r="D431" s="4" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="H431" s="4" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I431" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="432" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A432" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B432" s="4" t="s">
         <v>620</v>
@@ -73057,9 +73072,6 @@
       <c r="D432" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E432" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="H432" s="4" t="s">
         <v>54</v>
       </c>
@@ -73069,7 +73081,7 @@
     </row>
     <row r="433" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A433" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B433" s="4" t="s">
         <v>620</v>
@@ -73083,9 +73095,6 @@
       <c r="E433" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F433" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="H433" s="4" t="s">
         <v>54</v>
       </c>
@@ -73093,9 +73102,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="434" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A434" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B434" s="4" t="s">
         <v>620</v>
@@ -73112,9 +73121,6 @@
       <c r="F434" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G434" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="H434" s="4" t="s">
         <v>54</v>
       </c>
@@ -73124,7 +73130,7 @@
     </row>
     <row r="435" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A435" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B435" s="4" t="s">
         <v>620</v>
@@ -73142,7 +73148,7 @@
         <v>66</v>
       </c>
       <c r="G435" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H435" s="4" t="s">
         <v>54</v>
@@ -73153,7 +73159,7 @@
     </row>
     <row r="436" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A436" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B436" s="4" t="s">
         <v>620</v>
@@ -73171,7 +73177,7 @@
         <v>66</v>
       </c>
       <c r="G436" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H436" s="4" t="s">
         <v>54</v>
@@ -73180,9 +73186,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="437" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A437" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B437" s="4" t="s">
         <v>620</v>
@@ -73197,7 +73203,10 @@
         <v>145</v>
       </c>
       <c r="F437" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
+      </c>
+      <c r="G437" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="H437" s="4" t="s">
         <v>54</v>
@@ -73206,9 +73215,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="438" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A438" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B438" s="4" t="s">
         <v>620</v>
@@ -73225,9 +73234,6 @@
       <c r="F438" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G438" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="H438" s="4" t="s">
         <v>54</v>
       </c>
@@ -73237,7 +73243,7 @@
     </row>
     <row r="439" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A439" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B439" s="4" t="s">
         <v>620</v>
@@ -73255,7 +73261,7 @@
         <v>55</v>
       </c>
       <c r="G439" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H439" s="4" t="s">
         <v>54</v>
@@ -73266,7 +73272,7 @@
     </row>
     <row r="440" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A440" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B440" s="4" t="s">
         <v>620</v>
@@ -73284,7 +73290,7 @@
         <v>55</v>
       </c>
       <c r="G440" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H440" s="4" t="s">
         <v>54</v>
@@ -73293,9 +73299,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="441" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A441" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B441" s="4" t="s">
         <v>620</v>
@@ -73304,18 +73310,27 @@
         <v>278</v>
       </c>
       <c r="D441" s="4" t="s">
-        <v>113</v>
+        <v>143</v>
+      </c>
+      <c r="E441" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F441" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G441" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="H441" s="4" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I441" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="442" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A442" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B442" s="4" t="s">
         <v>620</v>
@@ -73324,10 +73339,10 @@
         <v>278</v>
       </c>
       <c r="D442" s="4" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="H442" s="4" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I442" s="4" t="s">
         <v>683</v>
@@ -73335,7 +73350,7 @@
     </row>
     <row r="443" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A443" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B443" s="4" t="s">
         <v>620</v>
@@ -73344,7 +73359,7 @@
         <v>278</v>
       </c>
       <c r="D443" s="4" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="H443" s="4" t="s">
         <v>54</v>
@@ -73355,7 +73370,7 @@
     </row>
     <row r="444" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A444" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B444" s="4" t="s">
         <v>620</v>
@@ -73364,7 +73379,7 @@
         <v>278</v>
       </c>
       <c r="D444" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H444" s="4" t="s">
         <v>54</v>
@@ -73373,9 +73388,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="445" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A445" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B445" s="4" t="s">
         <v>620</v>
@@ -73384,10 +73399,10 @@
         <v>278</v>
       </c>
       <c r="D445" s="4" t="s">
-        <v>118</v>
+        <v>232</v>
       </c>
       <c r="H445" s="4" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I445" s="4" t="s">
         <v>683</v>
@@ -73395,7 +73410,7 @@
     </row>
     <row r="446" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A446" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B446" s="4" t="s">
         <v>620</v>
@@ -73404,7 +73419,7 @@
         <v>278</v>
       </c>
       <c r="D446" s="4" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="H446" s="4" t="s">
         <v>27</v>
@@ -73413,9 +73428,9 @@
         <v>683</v>
       </c>
     </row>
-    <row r="447" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A447" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B447" s="4" t="s">
         <v>620</v>
@@ -73424,18 +73439,18 @@
         <v>278</v>
       </c>
       <c r="D447" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H447" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I447" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="448" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A448" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B448" s="4" t="s">
         <v>620</v>
@@ -73444,17 +73459,37 @@
         <v>278</v>
       </c>
       <c r="D448" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H448" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I448" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A449" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="B449" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="C449" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D449" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H448" s="4" t="s">
+      <c r="H449" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I448" s="4" t="s">
+      <c r="I449" s="4" t="s">
         <v>683</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H448" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H449" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
